--- a/data/georgia_census/adjara/xelvachauri/education_graduates.xlsx
+++ b/data/georgia_census/adjara/xelvachauri/education_graduates.xlsx
@@ -1809,13 +1809,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A179BE7B-3F80-4D39-96A4-8A5CFEF48BDC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9DEB49E-D742-469F-BBA8-94752263DA1C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F426414-B12D-4B88-AE23-743634FD8069}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AA54571-C6AD-490D-8A4C-5C9535E93919}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{395E2CD4-F024-44D2-8122-E414E4459EB1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6614F52-00C1-4D46-A692-2DAA45B3AA33}"/>
 </file>